--- a/data_craw/quarter/income_statement_quarter/mbb.xlsx
+++ b/data_craw/quarter/income_statement_quarter/mbb.xlsx
@@ -441,82 +441,82 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>2019_q3</t>
+          <t>2020_q3</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>2019_q4</t>
+          <t>2020_q4</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>2020_q1</t>
+          <t>2021_q1</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>2020_q2</t>
+          <t>2021_q2</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>2020_q3</t>
+          <t>2021_q3</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>2020_q4</t>
+          <t>2021_q4</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>2021_q1</t>
+          <t>2022_q1</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>2021_q2</t>
+          <t>2022_q2</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>2021_q3</t>
+          <t>2022_q3</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>2021_q4</t>
+          <t>2022_q4</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
-          <t>2022_q1</t>
+          <t>2023_q1</t>
         </is>
       </c>
       <c r="M1" s="1" t="inlineStr">
         <is>
-          <t>2022_q2</t>
+          <t>2023_q2</t>
         </is>
       </c>
       <c r="N1" s="1" t="inlineStr">
         <is>
-          <t>2022_q3</t>
+          <t>2023_q3</t>
         </is>
       </c>
       <c r="O1" s="1" t="inlineStr">
         <is>
-          <t>2022_q4</t>
+          <t>2023_q4</t>
         </is>
       </c>
       <c r="P1" s="1" t="inlineStr">
         <is>
-          <t>2023_q1</t>
+          <t>2024_q1</t>
         </is>
       </c>
       <c r="Q1" s="1" t="inlineStr">
         <is>
-          <t>2023_q2</t>
+          <t>2024_q2</t>
         </is>
       </c>
     </row>
@@ -575,35 +575,33 @@
       <c r="B4" t="inlineStr"/>
       <c r="C4" t="inlineStr"/>
       <c r="D4" t="inlineStr"/>
-      <c r="E4" t="n">
-        <v>538590000000</v>
-      </c>
+      <c r="E4" t="inlineStr"/>
       <c r="F4" t="inlineStr"/>
-      <c r="G4" t="inlineStr"/>
-      <c r="H4" t="inlineStr"/>
-      <c r="I4" t="inlineStr"/>
-      <c r="J4" t="inlineStr"/>
+      <c r="G4" t="n">
+        <v>907984000000</v>
+      </c>
+      <c r="H4" t="n">
+        <v>537988000000</v>
+      </c>
+      <c r="I4" t="n">
+        <v>566691000000</v>
+      </c>
+      <c r="J4" t="n">
+        <v>585491000000</v>
+      </c>
       <c r="K4" t="n">
-        <v>907984000000</v>
+        <v>451488000000</v>
       </c>
       <c r="L4" t="n">
-        <v>537988000000</v>
+        <v>466982000000</v>
       </c>
       <c r="M4" t="n">
-        <v>566691000000</v>
-      </c>
-      <c r="N4" t="n">
-        <v>585491000000</v>
-      </c>
-      <c r="O4" t="n">
-        <v>451488000000</v>
-      </c>
-      <c r="P4" t="n">
-        <v>466982000000</v>
-      </c>
-      <c r="Q4" t="n">
         <v>628973000000</v>
       </c>
+      <c r="N4" t="inlineStr"/>
+      <c r="O4" t="inlineStr"/>
+      <c r="P4" t="inlineStr"/>
+      <c r="Q4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -658,53 +656,45 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2211146000000</v>
+        <v>2423309000000</v>
       </c>
       <c r="C7" t="n">
-        <v>1926509000000</v>
+        <v>2010207000000</v>
       </c>
       <c r="D7" t="n">
-        <v>1782860000000</v>
+        <v>3666332000000</v>
       </c>
       <c r="E7" t="n">
-        <v>2389663000000</v>
+        <v>2730497000000</v>
       </c>
       <c r="F7" t="n">
-        <v>2423309000000</v>
+        <v>3122213000000</v>
       </c>
       <c r="G7" t="n">
-        <v>2010207000000</v>
+        <v>3702395000000</v>
       </c>
       <c r="H7" t="n">
-        <v>3666332000000</v>
+        <v>4726442000000</v>
       </c>
       <c r="I7" t="n">
-        <v>2730497000000</v>
+        <v>4793819000000</v>
       </c>
       <c r="J7" t="n">
-        <v>3122213000000</v>
+        <v>5034902000000</v>
       </c>
       <c r="K7" t="n">
-        <v>3702395000000</v>
+        <v>3600022000000</v>
       </c>
       <c r="L7" t="n">
-        <v>4726442000000</v>
+        <v>5205556000000</v>
       </c>
       <c r="M7" t="n">
-        <v>4793819000000</v>
-      </c>
-      <c r="N7" t="n">
-        <v>5034902000000</v>
-      </c>
-      <c r="O7" t="n">
-        <v>3600022000000</v>
-      </c>
-      <c r="P7" t="n">
-        <v>5205556000000</v>
-      </c>
-      <c r="Q7" t="n">
         <v>4982440000000</v>
       </c>
+      <c r="N7" t="inlineStr"/>
+      <c r="O7" t="inlineStr"/>
+      <c r="P7" t="inlineStr"/>
+      <c r="Q7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -712,52 +702,46 @@
           <t>7. Chi phí tài chính</t>
         </is>
       </c>
-      <c r="B8" t="inlineStr"/>
+      <c r="B8" t="n">
+        <v>66190000000</v>
+      </c>
       <c r="C8" t="n">
-        <v>56529000000</v>
+        <v>79502000000</v>
       </c>
       <c r="D8" t="n">
-        <v>70609000000</v>
+        <v>113523000000</v>
       </c>
       <c r="E8" t="n">
-        <v>127079000000</v>
+        <v>134471000000</v>
       </c>
       <c r="F8" t="n">
-        <v>66190000000</v>
+        <v>100037000000</v>
       </c>
       <c r="G8" t="n">
-        <v>79502000000</v>
+        <v>176331000000</v>
       </c>
       <c r="H8" t="n">
-        <v>113523000000</v>
+        <v>180233000000</v>
       </c>
       <c r="I8" t="n">
-        <v>134471000000</v>
+        <v>170617000000</v>
       </c>
       <c r="J8" t="n">
-        <v>100037000000</v>
+        <v>155709000000</v>
       </c>
       <c r="K8" t="n">
-        <v>176331000000</v>
+        <v>165891000000</v>
       </c>
       <c r="L8" t="n">
-        <v>180233000000</v>
+        <v>181894000000</v>
       </c>
       <c r="M8" t="n">
-        <v>170617000000</v>
-      </c>
-      <c r="N8" t="n">
-        <v>155709000000</v>
-      </c>
-      <c r="O8" t="n">
-        <v>165891000000</v>
-      </c>
-      <c r="P8" t="n">
-        <v>181894000000</v>
-      </c>
-      <c r="Q8" t="n">
         <v>88945000000</v>
       </c>
+      <c r="N8" t="inlineStr"/>
+      <c r="O8" t="inlineStr"/>
+      <c r="P8" t="inlineStr"/>
+      <c r="Q8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
